--- a/biology/Médecine/Michel_Pierre_(herboriste)/Michel_Pierre_(herboriste).xlsx
+++ b/biology/Médecine/Michel_Pierre_(herboriste)/Michel_Pierre_(herboriste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Pierre, né le 26 juin 1946 à Béguey (Gironde), est directeur de l'Herboristerie du Palais Royal à Paris, auteur d'ouvrages sur les plantes et président du syndicat des métiers de l'herboristerie Synaplante.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Préparateur en pharmacie de formation, il commence dans une pharmacie qui préparait ses propres médicaments (pilules, sirop, suppositoires, mélanges de plantes…), puis il a été distributeur de médicaments.
-En 2013 Michel Pierre a été poursuivi en justice à la suite de la plainte de l’Ordre national des pharmaciens[1],[2] pour avoir vendu des plantes faisant partie du monopole de la Pharmacie.
-Il crée en 2016 un syndicat des métiers de l'herboristerie, le Synaplante, pour rassembler l’ensemble des acteurs de la filière, des herboristes aux cueilleurs de simples[3]. En 2021, il en est  toujours le président.
+En 2013 Michel Pierre a été poursuivi en justice à la suite de la plainte de l’Ordre national des pharmaciens, pour avoir vendu des plantes faisant partie du monopole de la Pharmacie.
+Il crée en 2016 un syndicat des métiers de l'herboristerie, le Synaplante, pour rassembler l’ensemble des acteurs de la filière, des herboristes aux cueilleurs de simples. En 2021, il en est  toujours le président.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Principaux livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1982 Les Plantes de l'herboriste, Paris, R. Jauze
-1992 Au bonheur des plantes, avec Michel Lis, Paris ,le Pré aux clercs[4] renommer en 2000 "Secrets des Plantes pour se soigner naturellement" avec Michel Lis, Editions Artémis
+1992 Au bonheur des plantes, avec Michel Lis, Paris ,le Pré aux clercs renommer en 2000 "Secrets des Plantes pour se soigner naturellement" avec Michel Lis, Editions Artémis
 2013 Les Plantes du bien-être, Éditions du Chêne
 2016 Ma Bible des Secrets d’Herboriste, avec Caroline Gayet, Editions Leduc.s
 2019 Mes 1000 ordonnances de phytothérapie, avec Caroline Gayet, Editions Leduc.s
